--- a/src/files/Google SP.xlsx
+++ b/src/files/Google SP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="209">
   <si>
     <t>Id</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Viacom18</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>BookMyShow</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>JioCinema</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>ManoramaMax</t>
@@ -511,7 +511,7 @@
     <t>com.yupptv.androidtv</t>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.yupptv.androidtv&amp;hl=en_US&amp;gl=in</t>
+    <t>https://play.google.com/store/apps/details?id=com.yupptv.androidtv</t>
   </si>
   <si>
     <t>market://details?id=com.yupptv.androidtv</t>
@@ -526,7 +526,7 @@
     <t>com.epicchannel.epicon</t>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.epicchannel.epicon&amp;hl=en_US&amp;gl=in</t>
+    <t>https://play.google.com/store/apps/details?id=com.epicchannel.epicon</t>
   </si>
   <si>
     <t>market://details?id=com.epicchannel.epicon</t>
@@ -541,7 +541,7 @@
     <t>com.saranyu.shemarooworld</t>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.saranyu.shemarooworld&amp;hl=en_US&amp;gl=in</t>
+    <t>https://play.google.com/store/apps/details?id=com.saranyu.shemarooworld</t>
   </si>
   <si>
     <t>market://details?id=com.saranyu.shemarooworld</t>
@@ -565,7 +565,7 @@
     <t>ahaflix.tv</t>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=ahaflix.tv&amp;hl=en_US&amp;gl=in</t>
+    <t>https://play.google.com/store/apps/details?id=ahaflix.tv</t>
   </si>
   <si>
     <t>market://details?id=ahaflix.tv</t>
@@ -647,7 +647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -718,12 +718,6 @@
       <name val="Consolas"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
@@ -786,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -852,22 +846,16 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1202,15 +1190,21 @@
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="K3" s="5" t="b">
         <v>1</v>
       </c>
@@ -1223,13 +1217,13 @@
         <v>329.0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
@@ -1261,10 +1255,10 @@
         <v>330.0</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -1279,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K5" s="5" t="b">
         <v>1</v>
@@ -1349,25 +1343,25 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="K7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1469,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J10" s="5" t="b">
         <v>1</v>
@@ -1764,7 +1758,7 @@
         <v>56</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F18" s="5" t="b">
         <v>1</v>
@@ -1840,7 +1834,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F20" s="5" t="b">
         <v>1</v>
@@ -2039,7 +2033,7 @@
         <v>329.0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>66</v>
@@ -2074,7 +2068,7 @@
         <v>330.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>66</v>
@@ -31582,7 +31576,7 @@
         <v>329.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>85</v>
@@ -31624,7 +31618,7 @@
         <v>329.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>90</v>
@@ -31666,7 +31660,7 @@
         <v>330.0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>85</v>
@@ -31708,7 +31702,7 @@
         <v>330.0</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>97</v>
@@ -31750,7 +31744,7 @@
         <v>330.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>90</v>
@@ -31830,26 +31824,26 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="18">
+      <c r="A13" s="9">
         <v>331.0</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>112</v>
+      <c r="E13" s="16">
+        <v>1.468454034E9</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -31873,25 +31867,25 @@
     </row>
     <row r="14">
       <c r="A14" s="9">
-        <v>331.0</v>
+        <v>332.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="16">
-        <v>1.468454034E9</v>
+      <c r="E14" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -31921,19 +31915,19 @@
         <v>26</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>117</v>
+        <v>86</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1.217563729E9</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -31956,26 +31950,26 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="18">
+      <c r="A16" s="9">
         <v>332.0</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>117</v>
+      <c r="C16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.244757492E9</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -31999,25 +31993,25 @@
     </row>
     <row r="17">
       <c r="A17" s="9">
-        <v>332.0</v>
+        <v>333.0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="26">
-        <v>1.217563729E9</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -32041,25 +32035,25 @@
     </row>
     <row r="18">
       <c r="A18" s="9">
-        <v>332.0</v>
+        <v>333.0</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E18" s="16">
-        <v>1.244757492E9</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>121</v>
+        <v>1.18875554E9</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -32083,10 +32077,10 @@
     </row>
     <row r="19">
       <c r="A19" s="9">
-        <v>333.0</v>
+        <v>334.0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>85</v>
@@ -32095,13 +32089,13 @@
         <v>109</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -32125,25 +32119,25 @@
     </row>
     <row r="20">
       <c r="A20" s="9">
-        <v>333.0</v>
+        <v>334.0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>97</v>
+        <v>32</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>123</v>
+      <c r="E20" s="24">
+        <v>1.473663873E9</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -32167,25 +32161,25 @@
     </row>
     <row r="21">
       <c r="A21" s="9">
-        <v>333.0</v>
+        <v>335.0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1.18875554E9</v>
+        <v>120</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -32209,25 +32203,25 @@
     </row>
     <row r="22">
       <c r="A22" s="9">
-        <v>334.0</v>
+        <v>335.0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1.666653815E9</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -32251,25 +32245,25 @@
     </row>
     <row r="23">
       <c r="A23" s="9">
-        <v>334.0</v>
+        <v>336.0</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>97</v>
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -32293,10 +32287,10 @@
     </row>
     <row r="24">
       <c r="A24" s="9">
-        <v>334.0</v>
+        <v>336.0</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>90</v>
@@ -32304,14 +32298,14 @@
       <c r="D24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="26">
-        <v>1.473663873E9</v>
+      <c r="E24" s="16">
+        <v>5.51666302E8</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -32335,25 +32329,25 @@
     </row>
     <row r="25">
       <c r="A25" s="9">
-        <v>335.0</v>
+        <v>337.0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -32377,25 +32371,25 @@
     </row>
     <row r="26">
       <c r="A26" s="9">
-        <v>335.0</v>
+        <v>337.0</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -32419,25 +32413,25 @@
     </row>
     <row r="27">
       <c r="A27" s="9">
-        <v>335.0</v>
+        <v>337.0</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E27" s="16">
-        <v>1.666653815E9</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>136</v>
+        <v>1.249601429E9</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -32461,25 +32455,25 @@
     </row>
     <row r="28">
       <c r="A28" s="9">
-        <v>336.0</v>
+        <v>338.0</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -32503,25 +32497,25 @@
     </row>
     <row r="29">
       <c r="A29" s="9">
-        <v>336.0</v>
+        <v>338.0</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E29" s="16">
-        <v>5.51666302E8</v>
+        <v>1.129523589E9</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -32545,25 +32539,25 @@
     </row>
     <row r="30">
       <c r="A30" s="9">
-        <v>337.0</v>
+        <v>339.0</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>85</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -32587,25 +32581,25 @@
     </row>
     <row r="31">
       <c r="A31" s="9">
-        <v>337.0</v>
+        <v>339.0</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>97</v>
+        <v>44</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>145</v>
+        <v>155</v>
+      </c>
+      <c r="E31" s="16">
+        <v>4.08382666E8</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>147</v>
+        <v>159</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -32629,25 +32623,25 @@
     </row>
     <row r="32">
       <c r="A32" s="9">
-        <v>337.0</v>
+        <v>340.0</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="16">
-        <v>1.249601429E9</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>149</v>
+      <c r="E32" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -32671,25 +32665,25 @@
     </row>
     <row r="33">
       <c r="A33" s="9">
-        <v>338.0</v>
+        <v>340.0</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>85</v>
+        <v>47</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -32713,25 +32707,25 @@
     </row>
     <row r="34">
       <c r="A34" s="9">
-        <v>338.0</v>
+        <v>340.0</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="16">
-        <v>1.129523589E9</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>153</v>
+        <v>6.65805393E8</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -32755,25 +32749,25 @@
     </row>
     <row r="35">
       <c r="A35" s="9">
-        <v>339.0</v>
+        <v>341.0</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -32797,25 +32791,25 @@
     </row>
     <row r="36">
       <c r="A36" s="9">
-        <v>339.0</v>
+        <v>341.0</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="E36" s="16">
-        <v>4.08382666E8</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>159</v>
+        <v>6.65805393E8</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -32839,25 +32833,25 @@
     </row>
     <row r="37">
       <c r="A37" s="9">
-        <v>340.0</v>
+        <v>341.0</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>161</v>
+        <v>120</v>
+      </c>
+      <c r="E37" s="16">
+        <v>1.252513341E9</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>163</v>
+        <v>172</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -32881,25 +32875,25 @@
     </row>
     <row r="38">
       <c r="A38" s="9">
-        <v>340.0</v>
+        <v>342.0</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -32923,25 +32917,25 @@
     </row>
     <row r="39">
       <c r="A39" s="9">
-        <v>340.0</v>
+        <v>342.0</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="16">
-        <v>6.65805393E8</v>
+      <c r="E39" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>168</v>
+        <v>178</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -32965,25 +32959,25 @@
     </row>
     <row r="40">
       <c r="A40" s="9">
-        <v>341.0</v>
+        <v>342.0</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>171</v>
+      <c r="E40" s="16">
+        <v>1.43904131E9</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -33007,25 +33001,25 @@
     </row>
     <row r="41">
       <c r="A41" s="9">
-        <v>341.0</v>
+        <v>343.0</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>97</v>
+        <v>54</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -33049,25 +33043,25 @@
     </row>
     <row r="42">
       <c r="A42" s="9">
-        <v>341.0</v>
+        <v>343.0</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E42" s="16">
-        <v>6.65805393E8</v>
+        <v>1.488739001E9</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -33091,25 +33085,25 @@
     </row>
     <row r="43">
       <c r="A43" s="9">
-        <v>341.0</v>
+        <v>344.0</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="16">
-        <v>1.252513341E9</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>173</v>
+        <v>187</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -33133,25 +33127,25 @@
     </row>
     <row r="44">
       <c r="A44" s="9">
-        <v>342.0</v>
+        <v>344.0</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>174</v>
+        <v>187</v>
+      </c>
+      <c r="E44" s="16">
+        <v>5.40674767E8</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>176</v>
+        <v>191</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -33175,25 +33169,25 @@
     </row>
     <row r="45">
       <c r="A45" s="9">
-        <v>342.0</v>
+        <v>345.0</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>97</v>
+        <v>60</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>178</v>
+        <v>193</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -33217,25 +33211,25 @@
     </row>
     <row r="46">
       <c r="A46" s="9">
-        <v>342.0</v>
+        <v>345.0</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="16">
-        <v>1.43904131E9</v>
+      <c r="E46" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -33259,25 +33253,25 @@
     </row>
     <row r="47">
       <c r="A47" s="9">
-        <v>343.0</v>
+        <v>345.0</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>182</v>
+      <c r="E47" s="16">
+        <v>4.14009038E8</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>184</v>
+        <v>199</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -33301,25 +33295,25 @@
     </row>
     <row r="48">
       <c r="A48" s="9">
-        <v>343.0</v>
+        <v>346.0</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>183</v>
+        <v>201</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -33343,25 +33337,25 @@
     </row>
     <row r="49">
       <c r="A49" s="9">
-        <v>343.0</v>
+        <v>346.0</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="16">
-        <v>1.488739001E9</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>186</v>
+        <v>86</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -33385,25 +33379,25 @@
     </row>
     <row r="50">
       <c r="A50" s="9">
-        <v>344.0</v>
+        <v>346.0</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>188</v>
+        <v>86</v>
+      </c>
+      <c r="E50" s="16">
+        <v>1.497257119E9</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>190</v>
+        <v>207</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -33426,27 +33420,13 @@
       <c r="Z50" s="10"/>
     </row>
     <row r="51">
-      <c r="A51" s="9">
-        <v>344.0</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="16">
-        <v>5.40674767E8</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -33468,27 +33448,13 @@
       <c r="Z51" s="10"/>
     </row>
     <row r="52">
-      <c r="A52" s="9">
-        <v>345.0</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>195</v>
-      </c>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -33510,27 +33476,13 @@
       <c r="Z52" s="10"/>
     </row>
     <row r="53">
-      <c r="A53" s="9">
-        <v>345.0</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>198</v>
-      </c>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -33552,27 +33504,13 @@
       <c r="Z53" s="10"/>
     </row>
     <row r="54">
-      <c r="A54" s="9">
-        <v>345.0</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="16">
-        <v>4.14009038E8</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>200</v>
-      </c>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -33594,27 +33532,13 @@
       <c r="Z54" s="10"/>
     </row>
     <row r="55">
-      <c r="A55" s="9">
-        <v>346.0</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>203</v>
-      </c>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -33636,27 +33560,13 @@
       <c r="Z55" s="10"/>
     </row>
     <row r="56">
-      <c r="A56" s="9">
-        <v>346.0</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>206</v>
-      </c>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -33678,27 +33588,13 @@
       <c r="Z56" s="10"/>
     </row>
     <row r="57">
-      <c r="A57" s="9">
-        <v>346.0</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="16">
-        <v>1.497257119E9</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>208</v>
-      </c>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -60879,202 +60775,6 @@
       <c r="Y1027" s="10"/>
       <c r="Z1027" s="10"/>
     </row>
-    <row r="1028">
-      <c r="A1028" s="10"/>
-      <c r="B1028" s="10"/>
-      <c r="C1028" s="10"/>
-      <c r="D1028" s="10"/>
-      <c r="E1028" s="10"/>
-      <c r="F1028" s="10"/>
-      <c r="G1028" s="10"/>
-      <c r="H1028" s="10"/>
-      <c r="I1028" s="10"/>
-      <c r="J1028" s="10"/>
-      <c r="K1028" s="10"/>
-      <c r="L1028" s="10"/>
-      <c r="M1028" s="10"/>
-      <c r="N1028" s="10"/>
-      <c r="O1028" s="10"/>
-      <c r="P1028" s="10"/>
-      <c r="Q1028" s="10"/>
-      <c r="R1028" s="10"/>
-      <c r="S1028" s="10"/>
-      <c r="T1028" s="10"/>
-      <c r="U1028" s="10"/>
-      <c r="V1028" s="10"/>
-      <c r="W1028" s="10"/>
-      <c r="X1028" s="10"/>
-      <c r="Y1028" s="10"/>
-      <c r="Z1028" s="10"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="10"/>
-      <c r="B1029" s="10"/>
-      <c r="C1029" s="10"/>
-      <c r="D1029" s="10"/>
-      <c r="E1029" s="10"/>
-      <c r="F1029" s="10"/>
-      <c r="G1029" s="10"/>
-      <c r="H1029" s="10"/>
-      <c r="I1029" s="10"/>
-      <c r="J1029" s="10"/>
-      <c r="K1029" s="10"/>
-      <c r="L1029" s="10"/>
-      <c r="M1029" s="10"/>
-      <c r="N1029" s="10"/>
-      <c r="O1029" s="10"/>
-      <c r="P1029" s="10"/>
-      <c r="Q1029" s="10"/>
-      <c r="R1029" s="10"/>
-      <c r="S1029" s="10"/>
-      <c r="T1029" s="10"/>
-      <c r="U1029" s="10"/>
-      <c r="V1029" s="10"/>
-      <c r="W1029" s="10"/>
-      <c r="X1029" s="10"/>
-      <c r="Y1029" s="10"/>
-      <c r="Z1029" s="10"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="10"/>
-      <c r="B1030" s="10"/>
-      <c r="C1030" s="10"/>
-      <c r="D1030" s="10"/>
-      <c r="E1030" s="10"/>
-      <c r="F1030" s="10"/>
-      <c r="G1030" s="10"/>
-      <c r="H1030" s="10"/>
-      <c r="I1030" s="10"/>
-      <c r="J1030" s="10"/>
-      <c r="K1030" s="10"/>
-      <c r="L1030" s="10"/>
-      <c r="M1030" s="10"/>
-      <c r="N1030" s="10"/>
-      <c r="O1030" s="10"/>
-      <c r="P1030" s="10"/>
-      <c r="Q1030" s="10"/>
-      <c r="R1030" s="10"/>
-      <c r="S1030" s="10"/>
-      <c r="T1030" s="10"/>
-      <c r="U1030" s="10"/>
-      <c r="V1030" s="10"/>
-      <c r="W1030" s="10"/>
-      <c r="X1030" s="10"/>
-      <c r="Y1030" s="10"/>
-      <c r="Z1030" s="10"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="10"/>
-      <c r="B1031" s="10"/>
-      <c r="C1031" s="10"/>
-      <c r="D1031" s="10"/>
-      <c r="E1031" s="10"/>
-      <c r="F1031" s="10"/>
-      <c r="G1031" s="10"/>
-      <c r="H1031" s="10"/>
-      <c r="I1031" s="10"/>
-      <c r="J1031" s="10"/>
-      <c r="K1031" s="10"/>
-      <c r="L1031" s="10"/>
-      <c r="M1031" s="10"/>
-      <c r="N1031" s="10"/>
-      <c r="O1031" s="10"/>
-      <c r="P1031" s="10"/>
-      <c r="Q1031" s="10"/>
-      <c r="R1031" s="10"/>
-      <c r="S1031" s="10"/>
-      <c r="T1031" s="10"/>
-      <c r="U1031" s="10"/>
-      <c r="V1031" s="10"/>
-      <c r="W1031" s="10"/>
-      <c r="X1031" s="10"/>
-      <c r="Y1031" s="10"/>
-      <c r="Z1031" s="10"/>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="10"/>
-      <c r="B1032" s="10"/>
-      <c r="C1032" s="10"/>
-      <c r="D1032" s="10"/>
-      <c r="E1032" s="10"/>
-      <c r="F1032" s="10"/>
-      <c r="G1032" s="10"/>
-      <c r="H1032" s="10"/>
-      <c r="I1032" s="10"/>
-      <c r="J1032" s="10"/>
-      <c r="K1032" s="10"/>
-      <c r="L1032" s="10"/>
-      <c r="M1032" s="10"/>
-      <c r="N1032" s="10"/>
-      <c r="O1032" s="10"/>
-      <c r="P1032" s="10"/>
-      <c r="Q1032" s="10"/>
-      <c r="R1032" s="10"/>
-      <c r="S1032" s="10"/>
-      <c r="T1032" s="10"/>
-      <c r="U1032" s="10"/>
-      <c r="V1032" s="10"/>
-      <c r="W1032" s="10"/>
-      <c r="X1032" s="10"/>
-      <c r="Y1032" s="10"/>
-      <c r="Z1032" s="10"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="10"/>
-      <c r="B1033" s="10"/>
-      <c r="C1033" s="10"/>
-      <c r="D1033" s="10"/>
-      <c r="E1033" s="10"/>
-      <c r="F1033" s="10"/>
-      <c r="G1033" s="10"/>
-      <c r="H1033" s="10"/>
-      <c r="I1033" s="10"/>
-      <c r="J1033" s="10"/>
-      <c r="K1033" s="10"/>
-      <c r="L1033" s="10"/>
-      <c r="M1033" s="10"/>
-      <c r="N1033" s="10"/>
-      <c r="O1033" s="10"/>
-      <c r="P1033" s="10"/>
-      <c r="Q1033" s="10"/>
-      <c r="R1033" s="10"/>
-      <c r="S1033" s="10"/>
-      <c r="T1033" s="10"/>
-      <c r="U1033" s="10"/>
-      <c r="V1033" s="10"/>
-      <c r="W1033" s="10"/>
-      <c r="X1033" s="10"/>
-      <c r="Y1033" s="10"/>
-      <c r="Z1033" s="10"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="10"/>
-      <c r="B1034" s="10"/>
-      <c r="C1034" s="10"/>
-      <c r="D1034" s="10"/>
-      <c r="E1034" s="10"/>
-      <c r="F1034" s="10"/>
-      <c r="G1034" s="10"/>
-      <c r="H1034" s="10"/>
-      <c r="I1034" s="10"/>
-      <c r="J1034" s="10"/>
-      <c r="K1034" s="10"/>
-      <c r="L1034" s="10"/>
-      <c r="M1034" s="10"/>
-      <c r="N1034" s="10"/>
-      <c r="O1034" s="10"/>
-      <c r="P1034" s="10"/>
-      <c r="Q1034" s="10"/>
-      <c r="R1034" s="10"/>
-      <c r="S1034" s="10"/>
-      <c r="T1034" s="10"/>
-      <c r="U1034" s="10"/>
-      <c r="V1034" s="10"/>
-      <c r="W1034" s="10"/>
-      <c r="X1034" s="10"/>
-      <c r="Y1034" s="10"/>
-      <c r="Z1034" s="10"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
@@ -61098,94 +60798,81 @@
     <hyperlink r:id="rId19" ref="F12"/>
     <hyperlink r:id="rId20" ref="E13"/>
     <hyperlink r:id="rId21" ref="F13"/>
-    <hyperlink r:id="rId22" ref="E14"/>
-    <hyperlink r:id="rId23" ref="F14"/>
+    <hyperlink r:id="rId22" ref="F14"/>
+    <hyperlink r:id="rId23" ref="E15"/>
     <hyperlink r:id="rId24" ref="F15"/>
-    <hyperlink r:id="rId25" ref="F16"/>
-    <hyperlink r:id="rId26" ref="E17"/>
-    <hyperlink r:id="rId27" ref="F17"/>
-    <hyperlink r:id="rId28" ref="E18"/>
-    <hyperlink r:id="rId29" ref="F18"/>
-    <hyperlink r:id="rId30" ref="E19"/>
-    <hyperlink r:id="rId31" ref="F19"/>
-    <hyperlink r:id="rId32" ref="E20"/>
-    <hyperlink r:id="rId33" ref="F20"/>
-    <hyperlink r:id="rId34" ref="E21"/>
-    <hyperlink r:id="rId35" ref="F21"/>
-    <hyperlink r:id="rId36" ref="E22"/>
-    <hyperlink r:id="rId37" ref="F22"/>
-    <hyperlink r:id="rId38" ref="E23"/>
-    <hyperlink r:id="rId39" ref="F23"/>
-    <hyperlink r:id="rId40" ref="E24"/>
-    <hyperlink r:id="rId41" ref="F24"/>
-    <hyperlink r:id="rId42" ref="E25"/>
-    <hyperlink r:id="rId43" ref="F25"/>
-    <hyperlink r:id="rId44" ref="E26"/>
-    <hyperlink r:id="rId45" ref="F26"/>
-    <hyperlink r:id="rId46" ref="E27"/>
-    <hyperlink r:id="rId47" ref="F27"/>
-    <hyperlink r:id="rId48" ref="E28"/>
-    <hyperlink r:id="rId49" ref="F28"/>
-    <hyperlink r:id="rId50" ref="E29"/>
-    <hyperlink r:id="rId51" ref="F29"/>
-    <hyperlink r:id="rId52" ref="E30"/>
-    <hyperlink r:id="rId53" ref="F30"/>
-    <hyperlink r:id="rId54" ref="E31"/>
-    <hyperlink r:id="rId55" ref="F31"/>
-    <hyperlink r:id="rId56" ref="E32"/>
-    <hyperlink r:id="rId57" ref="F32"/>
-    <hyperlink r:id="rId58" ref="E33"/>
-    <hyperlink r:id="rId59" ref="F33"/>
-    <hyperlink r:id="rId60" ref="E34"/>
-    <hyperlink r:id="rId61" ref="F34"/>
-    <hyperlink r:id="rId62" ref="E35"/>
-    <hyperlink r:id="rId63" ref="F35"/>
-    <hyperlink r:id="rId64" ref="E36"/>
-    <hyperlink r:id="rId65" ref="F36"/>
-    <hyperlink r:id="rId66" ref="E37"/>
-    <hyperlink r:id="rId67" ref="F37"/>
-    <hyperlink r:id="rId68" ref="E38"/>
-    <hyperlink r:id="rId69" ref="F38"/>
-    <hyperlink r:id="rId70" ref="E39"/>
-    <hyperlink r:id="rId71" ref="F39"/>
-    <hyperlink r:id="rId72" ref="E40"/>
-    <hyperlink r:id="rId73" ref="F40"/>
-    <hyperlink r:id="rId74" ref="E41"/>
-    <hyperlink r:id="rId75" ref="F41"/>
-    <hyperlink r:id="rId76" ref="E42"/>
-    <hyperlink r:id="rId77" ref="F42"/>
-    <hyperlink r:id="rId78" ref="E43"/>
-    <hyperlink r:id="rId79" ref="F43"/>
-    <hyperlink r:id="rId80" ref="E44"/>
-    <hyperlink r:id="rId81" ref="F44"/>
-    <hyperlink r:id="rId82" ref="E45"/>
-    <hyperlink r:id="rId83" ref="F45"/>
-    <hyperlink r:id="rId84" ref="E46"/>
-    <hyperlink r:id="rId85" ref="F46"/>
-    <hyperlink r:id="rId86" ref="E47"/>
-    <hyperlink r:id="rId87" ref="F47"/>
-    <hyperlink r:id="rId88" ref="E48"/>
-    <hyperlink r:id="rId89" ref="F48"/>
-    <hyperlink r:id="rId90" ref="E49"/>
-    <hyperlink r:id="rId91" ref="F49"/>
-    <hyperlink r:id="rId92" ref="E50"/>
-    <hyperlink r:id="rId93" ref="F50"/>
-    <hyperlink r:id="rId94" ref="E51"/>
-    <hyperlink r:id="rId95" ref="F51"/>
-    <hyperlink r:id="rId96" ref="E52"/>
-    <hyperlink r:id="rId97" ref="F52"/>
-    <hyperlink r:id="rId98" ref="E53"/>
-    <hyperlink r:id="rId99" ref="F53"/>
-    <hyperlink r:id="rId100" ref="E54"/>
-    <hyperlink r:id="rId101" ref="F54"/>
-    <hyperlink r:id="rId102" ref="E55"/>
-    <hyperlink r:id="rId103" ref="F55"/>
-    <hyperlink r:id="rId104" ref="E56"/>
-    <hyperlink r:id="rId105" ref="F56"/>
-    <hyperlink r:id="rId106" ref="E57"/>
-    <hyperlink r:id="rId107" ref="F57"/>
+    <hyperlink r:id="rId25" ref="E16"/>
+    <hyperlink r:id="rId26" ref="F16"/>
+    <hyperlink r:id="rId27" ref="E17"/>
+    <hyperlink r:id="rId28" ref="F17"/>
+    <hyperlink r:id="rId29" ref="E18"/>
+    <hyperlink r:id="rId30" ref="F18"/>
+    <hyperlink r:id="rId31" ref="E19"/>
+    <hyperlink r:id="rId32" ref="F19"/>
+    <hyperlink r:id="rId33" ref="E20"/>
+    <hyperlink r:id="rId34" ref="F20"/>
+    <hyperlink r:id="rId35" ref="E21"/>
+    <hyperlink r:id="rId36" ref="F21"/>
+    <hyperlink r:id="rId37" ref="E22"/>
+    <hyperlink r:id="rId38" ref="F22"/>
+    <hyperlink r:id="rId39" ref="E23"/>
+    <hyperlink r:id="rId40" ref="F23"/>
+    <hyperlink r:id="rId41" ref="E24"/>
+    <hyperlink r:id="rId42" ref="F24"/>
+    <hyperlink r:id="rId43" ref="E25"/>
+    <hyperlink r:id="rId44" ref="F25"/>
+    <hyperlink r:id="rId45" ref="E26"/>
+    <hyperlink r:id="rId46" ref="F26"/>
+    <hyperlink r:id="rId47" ref="E27"/>
+    <hyperlink r:id="rId48" ref="F27"/>
+    <hyperlink r:id="rId49" ref="E28"/>
+    <hyperlink r:id="rId50" ref="F28"/>
+    <hyperlink r:id="rId51" ref="E29"/>
+    <hyperlink r:id="rId52" ref="F29"/>
+    <hyperlink r:id="rId53" ref="E30"/>
+    <hyperlink r:id="rId54" ref="F30"/>
+    <hyperlink r:id="rId55" ref="E31"/>
+    <hyperlink r:id="rId56" ref="F31"/>
+    <hyperlink r:id="rId57" ref="E32"/>
+    <hyperlink r:id="rId58" ref="F32"/>
+    <hyperlink r:id="rId59" ref="E33"/>
+    <hyperlink r:id="rId60" ref="F33"/>
+    <hyperlink r:id="rId61" ref="E34"/>
+    <hyperlink r:id="rId62" ref="F34"/>
+    <hyperlink r:id="rId63" ref="E35"/>
+    <hyperlink r:id="rId64" ref="F35"/>
+    <hyperlink r:id="rId65" ref="E36"/>
+    <hyperlink r:id="rId66" ref="F36"/>
+    <hyperlink r:id="rId67" ref="E37"/>
+    <hyperlink r:id="rId68" ref="F37"/>
+    <hyperlink r:id="rId69" ref="E38"/>
+    <hyperlink r:id="rId70" ref="F38"/>
+    <hyperlink r:id="rId71" ref="E39"/>
+    <hyperlink r:id="rId72" ref="F39"/>
+    <hyperlink r:id="rId73" ref="E40"/>
+    <hyperlink r:id="rId74" ref="F40"/>
+    <hyperlink r:id="rId75" ref="E41"/>
+    <hyperlink r:id="rId76" ref="F41"/>
+    <hyperlink r:id="rId77" ref="E42"/>
+    <hyperlink r:id="rId78" ref="F42"/>
+    <hyperlink r:id="rId79" ref="E43"/>
+    <hyperlink r:id="rId80" ref="F43"/>
+    <hyperlink r:id="rId81" ref="E44"/>
+    <hyperlink r:id="rId82" ref="F44"/>
+    <hyperlink r:id="rId83" ref="E45"/>
+    <hyperlink r:id="rId84" ref="F45"/>
+    <hyperlink r:id="rId85" ref="E46"/>
+    <hyperlink r:id="rId86" ref="F46"/>
+    <hyperlink r:id="rId87" ref="E47"/>
+    <hyperlink r:id="rId88" ref="F47"/>
+    <hyperlink r:id="rId89" ref="E48"/>
+    <hyperlink r:id="rId90" ref="F48"/>
+    <hyperlink r:id="rId91" ref="E49"/>
+    <hyperlink r:id="rId92" ref="F49"/>
+    <hyperlink r:id="rId93" ref="E50"/>
+    <hyperlink r:id="rId94" ref="F50"/>
   </hyperlinks>
-  <drawing r:id="rId108"/>
+  <drawing r:id="rId95"/>
 </worksheet>
 </file>
 
@@ -61203,162 +60890,162 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28">
+      <c r="B1" s="26">
         <v>327.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>328.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="28">
+      <c r="A3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="26">
         <v>329.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="28">
+      <c r="A4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="26">
         <v>330.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>331.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>332.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>333.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>334.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>335.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>336.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>337.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>338.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>339.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <v>340.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="26">
         <v>341.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>342.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="26">
         <v>343.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="26">
         <v>344.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>345.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="26">
         <v>346.0</v>
       </c>
     </row>
